--- a/data/trdplan_auto/交易计划mxz-20200731.xlsx
+++ b/data/trdplan_auto/交易计划mxz-20200731.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\trdplan_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF3A387-B8B2-4393-9ACE-4DC38D0886EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B74027F-B519-491A-9C39-2190E3297B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1463,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
